--- a/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Santy Silalahi/Santy Silalahi.xlsx
+++ b/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Santy Silalahi/Santy Silalahi.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\07-02-2024\Macro\WO BUDGETING\Santy Silalahi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{768F4982-F614-40C5-95A4-71A7233C434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC9631C9-2EB0-4CD5-A91E-A1AA82421627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{92C9423C-E258-4516-8672-7AEF7DC42539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E3055965-E2F7-43E3-A9CB-F33FCB6AA43A}"/>
   </bookViews>
   <sheets>
     <sheet name="Santy Silalahi" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Periode : February-2024</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>BANK CHARGES</t>
@@ -795,8 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBC1DCA-9A9A-4E9A-82A6-93A25AF5F271}">
-  <sheetPr codeName="Sheet24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF70E93-87BB-4CF5-910C-B31C90E7F03E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1008,23 +1010,25 @@
       <c r="P6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="34">
@@ -1049,7 +1053,7 @@
         <v>4.2449069040977047E-2</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="33">
         <v>1</v>
@@ -1057,23 +1061,25 @@
       <c r="P7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="38"/>
+      <c r="Q7" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27">
@@ -1098,7 +1104,7 @@
         <v>0.38204162136879338</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="26">
         <v>1</v>
@@ -1106,23 +1112,25 @@
       <c r="P8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34">
@@ -1145,7 +1153,7 @@
         <v>1.052354870594862E-2</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O9" s="33">
         <v>1</v>
@@ -1153,23 +1161,25 @@
       <c r="P9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="38"/>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27">
@@ -1194,7 +1204,7 @@
         <v>2.8299379360651362E-2</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O10" s="26">
         <v>1</v>
@@ -1202,23 +1212,25 @@
       <c r="P10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34">
@@ -1243,7 +1255,7 @@
         <v>1.4149689680325681E-2</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O11" s="33">
         <v>1</v>
@@ -1251,23 +1263,25 @@
       <c r="P11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="38"/>
+      <c r="Q11" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27">
@@ -1292,7 +1306,7 @@
         <v>1.4149689680325681E-2</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O12" s="26">
         <v>1</v>
@@ -1300,23 +1314,25 @@
       <c r="P12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34">
@@ -1341,7 +1357,7 @@
         <v>1.4149689680325681E-2</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O13" s="33">
         <v>1</v>
@@ -1349,23 +1365,25 @@
       <c r="P13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="38"/>
+      <c r="Q13" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27">
@@ -1388,7 +1406,7 @@
         <v>0.6459958755352545</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O14" s="26">
         <v>1</v>
@@ -1396,23 +1414,25 @@
       <c r="P14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="31"/>
+      <c r="Q14" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34">
@@ -1435,7 +1455,7 @@
         <v>8.4898138081954094E-2</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O15" s="33">
         <v>1</v>
@@ -1443,7 +1463,9 @@
       <c r="P15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="38"/>
+      <c r="Q15" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I15">
@@ -1457,16 +1479,16 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{179E763A-1E46-4286-AEBB-510A2E086C4C}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{780AC8E8-168B-46A7-AD27-2FE8A21FB8FD}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{8CEA13D6-84AF-4AC0-AEAC-BD448E7461EF}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{CAA2FCA2-857E-4BBC-B7FA-888F9B73B4D6}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{2164178B-BE77-48C2-8FF6-B01F19695437}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{11590064-814F-437A-B413-56C27F234B70}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{76F62A9B-753F-4C93-9244-C5A82219C574}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{E5421BBA-0B1C-4AFB-B57A-D59A6F9A0355}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{2D914852-4B8E-4185-BC82-ABD491F526D7}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{D05BF588-50EA-4125-8EF4-AA2DAEFCA1A2}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{5CB5A536-4E51-49D8-ABE6-BD30EE97B0D5}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{F9D8E013-0FBB-44B0-9845-54E209A9DED8}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{C63C3EC1-AF56-4CD4-8791-AE04C9876C20}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{E81467BE-D724-4844-A1BF-210F64E95268}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{683E94AD-5E6C-46E0-8F0B-02A19E0143B9}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{7D3EB68D-2D77-4040-BE25-B5DF55752836}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{A2BDCE6A-58A4-4E14-9CB2-1DE15EA653AF}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{887826F6-B608-4871-B85D-2C8B93CA49FB}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{F3CC9299-6AEC-4CF1-8B95-3D5ABC0DA67D}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{B08B81EA-56ED-49FB-8C19-BA5BBDD05CEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
